--- a/docs/metabobank/metadata_excel/MetaboBank_GCGC-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GCGC-MS_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA7296C-F03E-4F51-A91D-2C8FD2AF4191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFC26B-AE49-4848-93E6-9241753A52C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,7 +1365,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="11"/>

--- a/docs/metabobank/metadata_excel/MetaboBank_GCGC-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GCGC-MS_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFC26B-AE49-4848-93E6-9241753A52C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4CB0C9-70F1-457C-A86E-1AE42196109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="195">
   <si>
     <t>Study Title</t>
   </si>
@@ -591,9 +591,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
     <t>2021-11-09</t>
   </si>
   <si>
@@ -623,6 +620,41 @@
   </si>
   <si>
     <t>normalization testing design</t>
+  </si>
+  <si>
+    <t>Parameter Value[Resolution 1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Parameter Value[Temperature 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Resolution 2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Temperature 2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add Parameter Value[Resolution 1], Parameter Value[Temperature 1], Parameter Value[Resolution 2], Parameter Value[Temperature 2]</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1128,120 +1160,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="126.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1262,9 +1304,9 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="38.44140625" style="1"/>
+    <col min="1" max="16384" width="38.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1282,12 +1324,12 @@
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>129</v>
       </c>
@@ -1295,24 +1337,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1365,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1334,15 +1376,15 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1395,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1364,7 +1406,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1417,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>127</v>
       </c>
@@ -1386,7 +1428,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1397,15 +1439,15 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1458,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -1427,10 +1469,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
@@ -1453,7 +1495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1487,7 +1529,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -1504,7 +1546,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1557,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>17</v>
       </c>
@@ -1526,35 +1568,35 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>23</v>
       </c>
@@ -1565,7 +1607,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1622,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>134</v>
       </c>
@@ -1588,19 +1630,19 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>163</v>
       </c>
@@ -1611,12 +1653,12 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>27</v>
       </c>
@@ -1665,64 +1707,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ105"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="35" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="24.88671875" style="1"/>
+    <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="33.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="35" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="37.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="24.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -1763,76 +1808,88 @@
         <v>170</v>
       </c>
       <c r="N4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="AC4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AE4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AF4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AG4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AH4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -1857,32 +1914,36 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="W5" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
-      <c r="AC5" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
-      <c r="AF5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="AH5" s="11"/>
       <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -1907,32 +1968,36 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
+      <c r="W6" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
-      <c r="AF6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -1957,32 +2022,36 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="W7" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
-      <c r="AF7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2019,8 +2088,12 @@
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -2057,8 +2130,12 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -2095,8 +2172,12 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2133,8 +2214,12 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -2171,8 +2256,12 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -2209,8 +2298,12 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -2247,8 +2340,12 @@
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2285,8 +2382,12 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -2323,8 +2424,12 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -2361,8 +2466,12 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -2399,8 +2508,12 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -2437,8 +2550,12 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -2475,8 +2592,12 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -2513,8 +2634,12 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2551,8 +2676,12 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2589,8 +2718,12 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -2627,8 +2760,12 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -2665,8 +2802,12 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -2703,8 +2844,12 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -2741,8 +2886,12 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
@@ -2779,8 +2928,12 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -2817,8 +2970,12 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
       <c r="AJ29" s="11"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -2855,8 +3012,12 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
       <c r="AJ30" s="11"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -2893,8 +3054,12 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
       <c r="AJ31" s="11"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
@@ -2931,8 +3096,12 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -2969,8 +3138,12 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
       <c r="AJ33" s="11"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
@@ -3007,8 +3180,12 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
       <c r="AJ34" s="11"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
@@ -3045,8 +3222,12 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
       <c r="AJ35" s="11"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -3083,8 +3264,12 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
@@ -3121,8 +3306,12 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -3159,8 +3348,12 @@
       <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
       <c r="AJ38" s="11"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
@@ -3197,8 +3390,12 @@
       <c r="AH39" s="11"/>
       <c r="AI39" s="11"/>
       <c r="AJ39" s="11"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
@@ -3235,8 +3432,12 @@
       <c r="AH40" s="11"/>
       <c r="AI40" s="11"/>
       <c r="AJ40" s="11"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
@@ -3273,8 +3474,12 @@
       <c r="AH41" s="11"/>
       <c r="AI41" s="11"/>
       <c r="AJ41" s="11"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
@@ -3311,8 +3516,12 @@
       <c r="AH42" s="11"/>
       <c r="AI42" s="11"/>
       <c r="AJ42" s="11"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
@@ -3349,8 +3558,12 @@
       <c r="AH43" s="11"/>
       <c r="AI43" s="11"/>
       <c r="AJ43" s="11"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -3387,8 +3600,12 @@
       <c r="AH44" s="11"/>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
@@ -3425,8 +3642,12 @@
       <c r="AH45" s="11"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="11"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -3463,8 +3684,12 @@
       <c r="AH46" s="11"/>
       <c r="AI46" s="11"/>
       <c r="AJ46" s="11"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
@@ -3501,8 +3726,12 @@
       <c r="AH47" s="11"/>
       <c r="AI47" s="11"/>
       <c r="AJ47" s="11"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
@@ -3539,8 +3768,12 @@
       <c r="AH48" s="11"/>
       <c r="AI48" s="11"/>
       <c r="AJ48" s="11"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
@@ -3577,8 +3810,12 @@
       <c r="AH49" s="11"/>
       <c r="AI49" s="11"/>
       <c r="AJ49" s="11"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
@@ -3615,8 +3852,12 @@
       <c r="AH50" s="11"/>
       <c r="AI50" s="11"/>
       <c r="AJ50" s="11"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
@@ -3653,8 +3894,12 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="11"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
@@ -3691,8 +3936,12 @@
       <c r="AH52" s="11"/>
       <c r="AI52" s="11"/>
       <c r="AJ52" s="11"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
@@ -3729,8 +3978,12 @@
       <c r="AH53" s="11"/>
       <c r="AI53" s="11"/>
       <c r="AJ53" s="11"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
@@ -3767,8 +4020,12 @@
       <c r="AH54" s="11"/>
       <c r="AI54" s="11"/>
       <c r="AJ54" s="11"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
@@ -3805,8 +4062,12 @@
       <c r="AH55" s="11"/>
       <c r="AI55" s="11"/>
       <c r="AJ55" s="11"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
@@ -3843,8 +4104,12 @@
       <c r="AH56" s="11"/>
       <c r="AI56" s="11"/>
       <c r="AJ56" s="11"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -3881,8 +4146,12 @@
       <c r="AH57" s="11"/>
       <c r="AI57" s="11"/>
       <c r="AJ57" s="11"/>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
@@ -3919,8 +4188,12 @@
       <c r="AH58" s="11"/>
       <c r="AI58" s="11"/>
       <c r="AJ58" s="11"/>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
@@ -3957,8 +4230,12 @@
       <c r="AH59" s="11"/>
       <c r="AI59" s="11"/>
       <c r="AJ59" s="11"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
@@ -3995,8 +4272,12 @@
       <c r="AH60" s="11"/>
       <c r="AI60" s="11"/>
       <c r="AJ60" s="11"/>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
@@ -4033,8 +4314,12 @@
       <c r="AH61" s="11"/>
       <c r="AI61" s="11"/>
       <c r="AJ61" s="11"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="11"/>
+      <c r="AN61" s="11"/>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
@@ -4071,8 +4356,12 @@
       <c r="AH62" s="11"/>
       <c r="AI62" s="11"/>
       <c r="AJ62" s="11"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK62" s="11"/>
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="11"/>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
@@ -4109,8 +4398,12 @@
       <c r="AH63" s="11"/>
       <c r="AI63" s="11"/>
       <c r="AJ63" s="11"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="11"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
@@ -4147,8 +4440,12 @@
       <c r="AH64" s="11"/>
       <c r="AI64" s="11"/>
       <c r="AJ64" s="11"/>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
@@ -4185,8 +4482,12 @@
       <c r="AH65" s="11"/>
       <c r="AI65" s="11"/>
       <c r="AJ65" s="11"/>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK65" s="11"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+      <c r="AN65" s="11"/>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="13"/>
@@ -4223,8 +4524,12 @@
       <c r="AH66" s="11"/>
       <c r="AI66" s="11"/>
       <c r="AJ66" s="11"/>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK66" s="11"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AN66" s="11"/>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="13"/>
@@ -4261,8 +4566,12 @@
       <c r="AH67" s="11"/>
       <c r="AI67" s="11"/>
       <c r="AJ67" s="11"/>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK67" s="11"/>
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11"/>
+      <c r="AN67" s="11"/>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="13"/>
@@ -4299,8 +4608,12 @@
       <c r="AH68" s="11"/>
       <c r="AI68" s="11"/>
       <c r="AJ68" s="11"/>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK68" s="11"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AN68" s="11"/>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="13"/>
@@ -4337,8 +4650,12 @@
       <c r="AH69" s="11"/>
       <c r="AI69" s="11"/>
       <c r="AJ69" s="11"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK69" s="11"/>
+      <c r="AL69" s="11"/>
+      <c r="AM69" s="11"/>
+      <c r="AN69" s="11"/>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="13"/>
@@ -4375,8 +4692,12 @@
       <c r="AH70" s="11"/>
       <c r="AI70" s="11"/>
       <c r="AJ70" s="11"/>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK70" s="11"/>
+      <c r="AL70" s="11"/>
+      <c r="AM70" s="11"/>
+      <c r="AN70" s="11"/>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="13"/>
@@ -4413,8 +4734,12 @@
       <c r="AH71" s="11"/>
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK71" s="11"/>
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+      <c r="AN71" s="11"/>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="13"/>
@@ -4451,8 +4776,12 @@
       <c r="AH72" s="11"/>
       <c r="AI72" s="11"/>
       <c r="AJ72" s="11"/>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK72" s="11"/>
+      <c r="AL72" s="11"/>
+      <c r="AM72" s="11"/>
+      <c r="AN72" s="11"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="13"/>
@@ -4489,8 +4818,12 @@
       <c r="AH73" s="11"/>
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK73" s="11"/>
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="11"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="13"/>
@@ -4527,8 +4860,12 @@
       <c r="AH74" s="11"/>
       <c r="AI74" s="11"/>
       <c r="AJ74" s="11"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="13"/>
@@ -4565,8 +4902,12 @@
       <c r="AH75" s="11"/>
       <c r="AI75" s="11"/>
       <c r="AJ75" s="11"/>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK75" s="11"/>
+      <c r="AL75" s="11"/>
+      <c r="AM75" s="11"/>
+      <c r="AN75" s="11"/>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
@@ -4603,8 +4944,12 @@
       <c r="AH76" s="11"/>
       <c r="AI76" s="11"/>
       <c r="AJ76" s="11"/>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK76" s="11"/>
+      <c r="AL76" s="11"/>
+      <c r="AM76" s="11"/>
+      <c r="AN76" s="11"/>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
@@ -4641,8 +4986,12 @@
       <c r="AH77" s="11"/>
       <c r="AI77" s="11"/>
       <c r="AJ77" s="11"/>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK77" s="11"/>
+      <c r="AL77" s="11"/>
+      <c r="AM77" s="11"/>
+      <c r="AN77" s="11"/>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="13"/>
@@ -4679,8 +5028,12 @@
       <c r="AH78" s="11"/>
       <c r="AI78" s="11"/>
       <c r="AJ78" s="11"/>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK78" s="11"/>
+      <c r="AL78" s="11"/>
+      <c r="AM78" s="11"/>
+      <c r="AN78" s="11"/>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="13"/>
@@ -4717,8 +5070,12 @@
       <c r="AH79" s="11"/>
       <c r="AI79" s="11"/>
       <c r="AJ79" s="11"/>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK79" s="11"/>
+      <c r="AL79" s="11"/>
+      <c r="AM79" s="11"/>
+      <c r="AN79" s="11"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="13"/>
@@ -4755,8 +5112,12 @@
       <c r="AH80" s="11"/>
       <c r="AI80" s="11"/>
       <c r="AJ80" s="11"/>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK80" s="11"/>
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
+      <c r="AN80" s="11"/>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="13"/>
@@ -4793,8 +5154,12 @@
       <c r="AH81" s="11"/>
       <c r="AI81" s="11"/>
       <c r="AJ81" s="11"/>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK81" s="11"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="13"/>
@@ -4831,8 +5196,12 @@
       <c r="AH82" s="11"/>
       <c r="AI82" s="11"/>
       <c r="AJ82" s="11"/>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK82" s="11"/>
+      <c r="AL82" s="11"/>
+      <c r="AM82" s="11"/>
+      <c r="AN82" s="11"/>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="13"/>
@@ -4869,8 +5238,12 @@
       <c r="AH83" s="11"/>
       <c r="AI83" s="11"/>
       <c r="AJ83" s="11"/>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK83" s="11"/>
+      <c r="AL83" s="11"/>
+      <c r="AM83" s="11"/>
+      <c r="AN83" s="11"/>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="13"/>
@@ -4907,8 +5280,12 @@
       <c r="AH84" s="11"/>
       <c r="AI84" s="11"/>
       <c r="AJ84" s="11"/>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK84" s="11"/>
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="11"/>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="13"/>
@@ -4945,8 +5322,12 @@
       <c r="AH85" s="11"/>
       <c r="AI85" s="11"/>
       <c r="AJ85" s="11"/>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK85" s="11"/>
+      <c r="AL85" s="11"/>
+      <c r="AM85" s="11"/>
+      <c r="AN85" s="11"/>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="13"/>
@@ -4983,8 +5364,12 @@
       <c r="AH86" s="11"/>
       <c r="AI86" s="11"/>
       <c r="AJ86" s="11"/>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK86" s="11"/>
+      <c r="AL86" s="11"/>
+      <c r="AM86" s="11"/>
+      <c r="AN86" s="11"/>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="13"/>
@@ -5021,8 +5406,12 @@
       <c r="AH87" s="11"/>
       <c r="AI87" s="11"/>
       <c r="AJ87" s="11"/>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK87" s="11"/>
+      <c r="AL87" s="11"/>
+      <c r="AM87" s="11"/>
+      <c r="AN87" s="11"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="13"/>
@@ -5059,8 +5448,12 @@
       <c r="AH88" s="11"/>
       <c r="AI88" s="11"/>
       <c r="AJ88" s="11"/>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK88" s="11"/>
+      <c r="AL88" s="11"/>
+      <c r="AM88" s="11"/>
+      <c r="AN88" s="11"/>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="13"/>
@@ -5097,8 +5490,12 @@
       <c r="AH89" s="11"/>
       <c r="AI89" s="11"/>
       <c r="AJ89" s="11"/>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK89" s="11"/>
+      <c r="AL89" s="11"/>
+      <c r="AM89" s="11"/>
+      <c r="AN89" s="11"/>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="13"/>
@@ -5135,8 +5532,12 @@
       <c r="AH90" s="11"/>
       <c r="AI90" s="11"/>
       <c r="AJ90" s="11"/>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK90" s="11"/>
+      <c r="AL90" s="11"/>
+      <c r="AM90" s="11"/>
+      <c r="AN90" s="11"/>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="13"/>
@@ -5173,8 +5574,12 @@
       <c r="AH91" s="11"/>
       <c r="AI91" s="11"/>
       <c r="AJ91" s="11"/>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK91" s="11"/>
+      <c r="AL91" s="11"/>
+      <c r="AM91" s="11"/>
+      <c r="AN91" s="11"/>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="13"/>
@@ -5211,8 +5616,12 @@
       <c r="AH92" s="11"/>
       <c r="AI92" s="11"/>
       <c r="AJ92" s="11"/>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK92" s="11"/>
+      <c r="AL92" s="11"/>
+      <c r="AM92" s="11"/>
+      <c r="AN92" s="11"/>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="13"/>
@@ -5249,8 +5658,12 @@
       <c r="AH93" s="11"/>
       <c r="AI93" s="11"/>
       <c r="AJ93" s="11"/>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK93" s="11"/>
+      <c r="AL93" s="11"/>
+      <c r="AM93" s="11"/>
+      <c r="AN93" s="11"/>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="13"/>
@@ -5287,8 +5700,12 @@
       <c r="AH94" s="11"/>
       <c r="AI94" s="11"/>
       <c r="AJ94" s="11"/>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK94" s="11"/>
+      <c r="AL94" s="11"/>
+      <c r="AM94" s="11"/>
+      <c r="AN94" s="11"/>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="13"/>
@@ -5325,8 +5742,12 @@
       <c r="AH95" s="11"/>
       <c r="AI95" s="11"/>
       <c r="AJ95" s="11"/>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK95" s="11"/>
+      <c r="AL95" s="11"/>
+      <c r="AM95" s="11"/>
+      <c r="AN95" s="11"/>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="13"/>
@@ -5363,8 +5784,12 @@
       <c r="AH96" s="11"/>
       <c r="AI96" s="11"/>
       <c r="AJ96" s="11"/>
-    </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK96" s="11"/>
+      <c r="AL96" s="11"/>
+      <c r="AM96" s="11"/>
+      <c r="AN96" s="11"/>
+    </row>
+    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="13"/>
@@ -5401,8 +5826,12 @@
       <c r="AH97" s="11"/>
       <c r="AI97" s="11"/>
       <c r="AJ97" s="11"/>
-    </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK97" s="11"/>
+      <c r="AL97" s="11"/>
+      <c r="AM97" s="11"/>
+      <c r="AN97" s="11"/>
+    </row>
+    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="13"/>
@@ -5439,8 +5868,12 @@
       <c r="AH98" s="11"/>
       <c r="AI98" s="11"/>
       <c r="AJ98" s="11"/>
-    </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK98" s="11"/>
+      <c r="AL98" s="11"/>
+      <c r="AM98" s="11"/>
+      <c r="AN98" s="11"/>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="13"/>
@@ -5477,8 +5910,12 @@
       <c r="AH99" s="11"/>
       <c r="AI99" s="11"/>
       <c r="AJ99" s="11"/>
-    </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK99" s="11"/>
+      <c r="AL99" s="11"/>
+      <c r="AM99" s="11"/>
+      <c r="AN99" s="11"/>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="13"/>
@@ -5515,8 +5952,12 @@
       <c r="AH100" s="11"/>
       <c r="AI100" s="11"/>
       <c r="AJ100" s="11"/>
-    </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK100" s="11"/>
+      <c r="AL100" s="11"/>
+      <c r="AM100" s="11"/>
+      <c r="AN100" s="11"/>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="13"/>
@@ -5553,8 +5994,12 @@
       <c r="AH101" s="11"/>
       <c r="AI101" s="11"/>
       <c r="AJ101" s="11"/>
-    </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK101" s="11"/>
+      <c r="AL101" s="11"/>
+      <c r="AM101" s="11"/>
+      <c r="AN101" s="11"/>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="13"/>
@@ -5591,8 +6036,12 @@
       <c r="AH102" s="11"/>
       <c r="AI102" s="11"/>
       <c r="AJ102" s="11"/>
-    </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK102" s="11"/>
+      <c r="AL102" s="11"/>
+      <c r="AM102" s="11"/>
+      <c r="AN102" s="11"/>
+    </row>
+    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="13"/>
@@ -5629,8 +6078,12 @@
       <c r="AH103" s="11"/>
       <c r="AI103" s="11"/>
       <c r="AJ103" s="11"/>
-    </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK103" s="11"/>
+      <c r="AL103" s="11"/>
+      <c r="AM103" s="11"/>
+      <c r="AN103" s="11"/>
+    </row>
+    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="13"/>
@@ -5667,8 +6120,12 @@
       <c r="AH104" s="11"/>
       <c r="AI104" s="11"/>
       <c r="AJ104" s="11"/>
-    </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK104" s="11"/>
+      <c r="AL104" s="11"/>
+      <c r="AM104" s="11"/>
+      <c r="AN104" s="11"/>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="13"/>
@@ -5705,6 +6162,10 @@
       <c r="AH105" s="11"/>
       <c r="AI105" s="11"/>
       <c r="AJ105" s="11"/>
+      <c r="AK105" s="11"/>
+      <c r="AL105" s="11"/>
+      <c r="AM105" s="11"/>
+      <c r="AN105" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5724,15 +6185,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="96.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>57</v>
       </c>
@@ -5743,7 +6204,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -5754,7 +6215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -5765,7 +6226,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -5776,7 +6237,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -5787,7 +6248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -5798,7 +6259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
@@ -5809,7 +6270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -5820,7 +6281,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -5831,7 +6292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -5842,7 +6303,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -5853,7 +6314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -5864,7 +6325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -5875,7 +6336,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -5886,7 +6347,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -5897,73 +6358,73 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -5974,7 +6435,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>154</v>
       </c>
@@ -5985,7 +6446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>155</v>
       </c>
@@ -5996,7 +6457,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -6004,7 +6465,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>99</v>
       </c>
@@ -6012,7 +6473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>101</v>
       </c>
@@ -6020,57 +6481,57 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>85</v>
       </c>

--- a/docs/metabobank/metadata_excel/MetaboBank_GCGC-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GCGC-MS_metadata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4CB0C9-70F1-457C-A86E-1AE42196109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4366721-2B4E-4BC9-8374-0A47607A625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -574,10 +574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Chromatography instrument;Autosampler model;Column model 1;Column type 1;Guard column;Column model 2;Column type 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
   </si>
   <si>
@@ -654,6 +650,10 @@
   </si>
   <si>
     <t>Add Parameter Value[Resolution 1], Parameter Value[Temperature 1], Parameter Value[Resolution 2], Parameter Value[Temperature 2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chromatography instrument;Autosampler model;Column model 1;Column type 1;Resolution 1;Temperature 1;Guard column;Column model 2;Column type 2;Resolution 2;Temperature 2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1246,7 @@
         <v>146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,31 +1259,31 @@
         <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1444,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1538,7 +1540,7 @@
         <v>125</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>173</v>
@@ -1808,10 +1810,10 @@
         <v>170</v>
       </c>
       <c r="N4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>37</v>
@@ -1823,10 +1825,10 @@
         <v>172</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>38</v>
@@ -6355,7 +6357,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6363,7 +6365,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>106</v>
@@ -6374,7 +6376,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>104</v>
@@ -6385,7 +6387,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>108</v>
@@ -6396,7 +6398,7 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>110</v>
@@ -6407,7 +6409,7 @@
         <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>112</v>
@@ -6418,7 +6420,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>114</v>

--- a/docs/metabobank/metadata_excel/MetaboBank_GCGC-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GCGC-MS_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4366721-2B4E-4BC9-8374-0A47607A625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89D7203-4E65-4D4B-9EDD-60875134BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="197">
   <si>
     <t>Study Title</t>
   </si>
@@ -653,7 +653,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Chromatography instrument;Autosampler model;Column model 1;Column type 1;Resolution 1;Temperature 1;Guard column;Column model 2;Column type 2;Resolution 2;Temperature 2</t>
+    <t>Remove Parameter Value[Resolution 1], Parameter Value[Resolution 2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chromatography instrument;Autosampler model;Column model 1;Column type 1;Temperature 1;Guard column;Column model 2;Column type 2;Temperature 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2026-02-20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1160,101 +1168,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>174</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>176</v>
       </c>
@@ -1278,12 +1284,20 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1303,12 +1317,12 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.5" style="1"/>
+    <col min="1" max="16384" width="38.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,12 +1340,12 @@
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>129</v>
       </c>
@@ -1339,24 +1353,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -1367,7 +1381,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1378,15 +1392,15 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1411,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1422,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1433,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>127</v>
       </c>
@@ -1430,7 +1444,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1455,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1463,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1474,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -1471,10 +1485,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1545,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1554,7 @@
         <v>125</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>173</v>
@@ -1548,7 +1562,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1573,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>17</v>
       </c>
@@ -1570,35 +1584,35 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>23</v>
       </c>
@@ -1609,7 +1623,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1638,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>134</v>
       </c>
@@ -1632,19 +1646,19 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>163</v>
       </c>
@@ -1655,12 +1669,12 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>27</v>
       </c>
@@ -1715,61 +1729,61 @@
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="33.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="33.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="35" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="24.875" style="1"/>
+    <col min="39" max="39" width="28.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -1891,7 +1905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -1945,7 +1959,7 @@
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -1999,7 +2013,7 @@
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -2053,7 +2067,7 @@
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2095,7 +2109,7 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -2137,7 +2151,7 @@
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -2179,7 +2193,7 @@
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2221,7 +2235,7 @@
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -2263,7 +2277,7 @@
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -2305,7 +2319,7 @@
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -2347,7 +2361,7 @@
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2389,7 +2403,7 @@
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -2431,7 +2445,7 @@
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -2473,7 +2487,7 @@
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -2515,7 +2529,7 @@
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -2557,7 +2571,7 @@
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -2599,7 +2613,7 @@
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -2641,7 +2655,7 @@
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2683,7 +2697,7 @@
       <c r="AM22" s="11"/>
       <c r="AN22" s="11"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2725,7 +2739,7 @@
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -2767,7 +2781,7 @@
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -2809,7 +2823,7 @@
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -2851,7 +2865,7 @@
       <c r="AM26" s="11"/>
       <c r="AN26" s="11"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -2893,7 +2907,7 @@
       <c r="AM27" s="11"/>
       <c r="AN27" s="11"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
@@ -2935,7 +2949,7 @@
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -2977,7 +2991,7 @@
       <c r="AM29" s="11"/>
       <c r="AN29" s="11"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -3019,7 +3033,7 @@
       <c r="AM30" s="11"/>
       <c r="AN30" s="11"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -3061,7 +3075,7 @@
       <c r="AM31" s="11"/>
       <c r="AN31" s="11"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
@@ -3103,7 +3117,7 @@
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -3145,7 +3159,7 @@
       <c r="AM33" s="11"/>
       <c r="AN33" s="11"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
@@ -3187,7 +3201,7 @@
       <c r="AM34" s="11"/>
       <c r="AN34" s="11"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
@@ -3229,7 +3243,7 @@
       <c r="AM35" s="11"/>
       <c r="AN35" s="11"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -3271,7 +3285,7 @@
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
@@ -3313,7 +3327,7 @@
       <c r="AM37" s="11"/>
       <c r="AN37" s="11"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -3355,7 +3369,7 @@
       <c r="AM38" s="11"/>
       <c r="AN38" s="11"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
@@ -3397,7 +3411,7 @@
       <c r="AM39" s="11"/>
       <c r="AN39" s="11"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
@@ -3439,7 +3453,7 @@
       <c r="AM40" s="11"/>
       <c r="AN40" s="11"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
@@ -3481,7 +3495,7 @@
       <c r="AM41" s="11"/>
       <c r="AN41" s="11"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
@@ -3523,7 +3537,7 @@
       <c r="AM42" s="11"/>
       <c r="AN42" s="11"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
@@ -3565,7 +3579,7 @@
       <c r="AM43" s="11"/>
       <c r="AN43" s="11"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -3607,7 +3621,7 @@
       <c r="AM44" s="11"/>
       <c r="AN44" s="11"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
@@ -3649,7 +3663,7 @@
       <c r="AM45" s="11"/>
       <c r="AN45" s="11"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -3691,7 +3705,7 @@
       <c r="AM46" s="11"/>
       <c r="AN46" s="11"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
@@ -3733,7 +3747,7 @@
       <c r="AM47" s="11"/>
       <c r="AN47" s="11"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
@@ -3775,7 +3789,7 @@
       <c r="AM48" s="11"/>
       <c r="AN48" s="11"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
@@ -3817,7 +3831,7 @@
       <c r="AM49" s="11"/>
       <c r="AN49" s="11"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
@@ -3859,7 +3873,7 @@
       <c r="AM50" s="11"/>
       <c r="AN50" s="11"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
@@ -3901,7 +3915,7 @@
       <c r="AM51" s="11"/>
       <c r="AN51" s="11"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
@@ -3943,7 +3957,7 @@
       <c r="AM52" s="11"/>
       <c r="AN52" s="11"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
@@ -3985,7 +3999,7 @@
       <c r="AM53" s="11"/>
       <c r="AN53" s="11"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
@@ -4027,7 +4041,7 @@
       <c r="AM54" s="11"/>
       <c r="AN54" s="11"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
@@ -4069,7 +4083,7 @@
       <c r="AM55" s="11"/>
       <c r="AN55" s="11"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
@@ -4111,7 +4125,7 @@
       <c r="AM56" s="11"/>
       <c r="AN56" s="11"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -4153,7 +4167,7 @@
       <c r="AM57" s="11"/>
       <c r="AN57" s="11"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
@@ -4195,7 +4209,7 @@
       <c r="AM58" s="11"/>
       <c r="AN58" s="11"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
@@ -4237,7 +4251,7 @@
       <c r="AM59" s="11"/>
       <c r="AN59" s="11"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
@@ -4279,7 +4293,7 @@
       <c r="AM60" s="11"/>
       <c r="AN60" s="11"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
@@ -4321,7 +4335,7 @@
       <c r="AM61" s="11"/>
       <c r="AN61" s="11"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
@@ -4363,7 +4377,7 @@
       <c r="AM62" s="11"/>
       <c r="AN62" s="11"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
@@ -4405,7 +4419,7 @@
       <c r="AM63" s="11"/>
       <c r="AN63" s="11"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
@@ -4447,7 +4461,7 @@
       <c r="AM64" s="11"/>
       <c r="AN64" s="11"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
@@ -4489,7 +4503,7 @@
       <c r="AM65" s="11"/>
       <c r="AN65" s="11"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="13"/>
@@ -4531,7 +4545,7 @@
       <c r="AM66" s="11"/>
       <c r="AN66" s="11"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="13"/>
@@ -4573,7 +4587,7 @@
       <c r="AM67" s="11"/>
       <c r="AN67" s="11"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="13"/>
@@ -4615,7 +4629,7 @@
       <c r="AM68" s="11"/>
       <c r="AN68" s="11"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="13"/>
@@ -4657,7 +4671,7 @@
       <c r="AM69" s="11"/>
       <c r="AN69" s="11"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="13"/>
@@ -4699,7 +4713,7 @@
       <c r="AM70" s="11"/>
       <c r="AN70" s="11"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="13"/>
@@ -4741,7 +4755,7 @@
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="13"/>
@@ -4783,7 +4797,7 @@
       <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="13"/>
@@ -4825,7 +4839,7 @@
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="13"/>
@@ -4867,7 +4881,7 @@
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="13"/>
@@ -4909,7 +4923,7 @@
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
@@ -4951,7 +4965,7 @@
       <c r="AM76" s="11"/>
       <c r="AN76" s="11"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
@@ -4993,7 +5007,7 @@
       <c r="AM77" s="11"/>
       <c r="AN77" s="11"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="13"/>
@@ -5035,7 +5049,7 @@
       <c r="AM78" s="11"/>
       <c r="AN78" s="11"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="13"/>
@@ -5077,7 +5091,7 @@
       <c r="AM79" s="11"/>
       <c r="AN79" s="11"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="13"/>
@@ -5119,7 +5133,7 @@
       <c r="AM80" s="11"/>
       <c r="AN80" s="11"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="13"/>
@@ -5161,7 +5175,7 @@
       <c r="AM81" s="11"/>
       <c r="AN81" s="11"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="13"/>
@@ -5203,7 +5217,7 @@
       <c r="AM82" s="11"/>
       <c r="AN82" s="11"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="13"/>
@@ -5245,7 +5259,7 @@
       <c r="AM83" s="11"/>
       <c r="AN83" s="11"/>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="13"/>
@@ -5287,7 +5301,7 @@
       <c r="AM84" s="11"/>
       <c r="AN84" s="11"/>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="13"/>
@@ -5329,7 +5343,7 @@
       <c r="AM85" s="11"/>
       <c r="AN85" s="11"/>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="13"/>
@@ -5371,7 +5385,7 @@
       <c r="AM86" s="11"/>
       <c r="AN86" s="11"/>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="13"/>
@@ -5413,7 +5427,7 @@
       <c r="AM87" s="11"/>
       <c r="AN87" s="11"/>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="13"/>
@@ -5455,7 +5469,7 @@
       <c r="AM88" s="11"/>
       <c r="AN88" s="11"/>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="13"/>
@@ -5497,7 +5511,7 @@
       <c r="AM89" s="11"/>
       <c r="AN89" s="11"/>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="13"/>
@@ -5539,7 +5553,7 @@
       <c r="AM90" s="11"/>
       <c r="AN90" s="11"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="13"/>
@@ -5581,7 +5595,7 @@
       <c r="AM91" s="11"/>
       <c r="AN91" s="11"/>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="13"/>
@@ -5623,7 +5637,7 @@
       <c r="AM92" s="11"/>
       <c r="AN92" s="11"/>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="13"/>
@@ -5665,7 +5679,7 @@
       <c r="AM93" s="11"/>
       <c r="AN93" s="11"/>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="13"/>
@@ -5707,7 +5721,7 @@
       <c r="AM94" s="11"/>
       <c r="AN94" s="11"/>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="13"/>
@@ -5749,7 +5763,7 @@
       <c r="AM95" s="11"/>
       <c r="AN95" s="11"/>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="13"/>
@@ -5791,7 +5805,7 @@
       <c r="AM96" s="11"/>
       <c r="AN96" s="11"/>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="13"/>
@@ -5833,7 +5847,7 @@
       <c r="AM97" s="11"/>
       <c r="AN97" s="11"/>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="13"/>
@@ -5875,7 +5889,7 @@
       <c r="AM98" s="11"/>
       <c r="AN98" s="11"/>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="13"/>
@@ -5917,7 +5931,7 @@
       <c r="AM99" s="11"/>
       <c r="AN99" s="11"/>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="13"/>
@@ -5959,7 +5973,7 @@
       <c r="AM100" s="11"/>
       <c r="AN100" s="11"/>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="13"/>
@@ -6001,7 +6015,7 @@
       <c r="AM101" s="11"/>
       <c r="AN101" s="11"/>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="13"/>
@@ -6043,7 +6057,7 @@
       <c r="AM102" s="11"/>
       <c r="AN102" s="11"/>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="13"/>
@@ -6085,7 +6099,7 @@
       <c r="AM103" s="11"/>
       <c r="AN103" s="11"/>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="13"/>
@@ -6127,7 +6141,7 @@
       <c r="AM104" s="11"/>
       <c r="AN104" s="11"/>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="13"/>
@@ -6187,15 +6201,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="96.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>57</v>
       </c>
@@ -6206,7 +6220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -6217,7 +6231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -6228,7 +6242,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -6239,7 +6253,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -6250,7 +6264,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -6261,7 +6275,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
@@ -6272,7 +6286,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -6283,7 +6297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -6294,7 +6308,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -6305,7 +6319,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -6316,7 +6330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -6327,7 +6341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -6338,7 +6352,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -6349,7 +6363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -6360,7 +6374,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -6371,7 +6385,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -6382,7 +6396,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
@@ -6393,7 +6407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -6404,7 +6418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -6415,7 +6429,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -6426,7 +6440,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -6437,7 +6451,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>154</v>
       </c>
@@ -6448,7 +6462,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>155</v>
       </c>
@@ -6459,7 +6473,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -6467,7 +6481,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>99</v>
       </c>
@@ -6475,7 +6489,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>101</v>
       </c>
@@ -6483,57 +6497,57 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
